--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43127,6 +43127,41 @@
         <v>891100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>442200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43162,6 +43162,41 @@
         <v>442200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>524000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43197,6 +43197,41 @@
         <v>524000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>745300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43232,6 +43232,41 @@
         <v>745300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>547200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43267,6 +43267,41 @@
         <v>547200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>450600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43302,6 +43302,41 @@
         <v>450600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>618500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43337,6 +43337,41 @@
         <v>618500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>572300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43372,6 +43372,41 @@
         <v>572300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>718000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43407,6 +43407,41 @@
         <v>718000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>460600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43442,6 +43442,41 @@
         <v>460600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>668900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43477,6 +43477,41 @@
         <v>668900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>428800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43512,6 +43512,41 @@
         <v>428800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>439400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43547,6 +43547,76 @@
         <v>439400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>673500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>417400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43617,6 +43617,76 @@
         <v>417400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>536700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>683900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,6 +43687,41 @@
         <v>683900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>459200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,41 @@
         <v>459200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>449000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,41 @@
         <v>449000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>543800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43792,6 +43792,41 @@
         <v>543800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>695400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43827,6 +43827,76 @@
         <v>695400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>450100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>472100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43897,6 +43897,41 @@
         <v>472100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>809600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43932,6 +43932,41 @@
         <v>809600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>697200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2648"/>
+  <dimension ref="A1:I2649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93212,6 +93212,41 @@
         <v>697200</v>
       </c>
     </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2649" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2649" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2649" t="n">
+        <v>698100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2649"/>
+  <dimension ref="A1:I2650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93247,6 +93247,41 @@
         <v>698100</v>
       </c>
     </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2650" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F2650" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2650" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2650" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2650" t="n">
+        <v>743400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93282,6 +93282,41 @@
         <v>743400</v>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2651" t="n">
+        <v>1064900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93317,6 +93317,41 @@
         <v>1064900</v>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2652" t="n">
+        <v>1392000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2652"/>
+  <dimension ref="A1:I2653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93352,6 +93352,41 @@
         <v>1392000</v>
       </c>
     </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2653" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2653" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2653" t="n">
+        <v>869100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2653"/>
+  <dimension ref="A1:I2654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93387,6 +93387,41 @@
         <v>869100</v>
       </c>
     </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2654" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2654" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2654" t="n">
+        <v>956200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2654"/>
+  <dimension ref="A1:I2655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93422,6 +93422,41 @@
         <v>956200</v>
       </c>
     </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2655" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2655" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2655" t="n">
+        <v>864600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2655"/>
+  <dimension ref="A1:I2656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93457,6 +93457,41 @@
         <v>864600</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2656" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2656" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2656" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2656" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2656" t="n">
+        <v>993300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2656"/>
+  <dimension ref="A1:I2657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93492,6 +93492,41 @@
         <v>993300</v>
       </c>
     </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2657" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2657" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2657" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2657" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2657" t="n">
+        <v>955900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2657"/>
+  <dimension ref="A1:I2658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93527,6 +93527,41 @@
         <v>955900</v>
       </c>
     </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2658" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2658" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2658" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2658" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2658" t="n">
+        <v>597000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2658"/>
+  <dimension ref="A1:I2659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93562,6 +93562,41 @@
         <v>597000</v>
       </c>
     </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2659" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2659" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2659" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2659" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2659" t="n">
+        <v>758100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2659"/>
+  <dimension ref="A1:I2660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93597,6 +93597,41 @@
         <v>758100</v>
       </c>
     </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2660" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2660" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2660" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2660" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2660" t="n">
+        <v>655700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2660"/>
+  <dimension ref="A1:I2661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93632,6 +93632,41 @@
         <v>655700</v>
       </c>
     </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2661" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2661" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2661" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2661" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2661" t="n">
+        <v>2346000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2661"/>
+  <dimension ref="A1:I2662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93667,6 +93667,41 @@
         <v>2346000</v>
       </c>
     </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2662" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2662" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2662" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2662" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2662" t="n">
+        <v>586100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9792.xlsx
+++ b/data/9792.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2662"/>
+  <dimension ref="A1:I2663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93702,6 +93702,41 @@
         <v>586100</v>
       </c>
     </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>SEG</t>
+        </is>
+      </c>
+      <c r="E2663" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2663" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2663" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2663" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2663" t="n">
+        <v>823000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
